--- a/medicine/Psychotrope/Cave_de_Cleebourg/Cave_de_Cleebourg.xlsx
+++ b/medicine/Psychotrope/Cave_de_Cleebourg/Cave_de_Cleebourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Cave de Cleebourg est une coopérative viticole alsacienne créée au lendemain de la Seconde Guerre mondiale en 1946 au nord de l'Alsace[1] et qui produit des vins d'appellation alsace et crémant-d'alsace[2].
+La Cave de Cleebourg est une coopérative viticole alsacienne créée au lendemain de la Seconde Guerre mondiale en 1946 au nord de l'Alsace et qui produit des vins d'appellation alsace et crémant-d'alsace.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vignoble de Cleebourg est situé au sein du Parc naturel régional des Vosges du Nord, à 60 km au nord de Strasbourg[3] sur la partie la plus septentrionale de la route des vins d'Alsace.
-Le domaine viticole s'étend sur 200 ha sur les communes de Cleebourg, Oberhoffen-lès-Wissembourg, Riedseltz, Rott, Steinseltz et Wissembourg[2].
-Les sols sont argilo-calcaire à Cleebourg, marno-gréseux à Rott, lœss et lehm à Oberhoffen, Riedseltz et Steinseltz, et l'exposition des coteaux est sud[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble de Cleebourg est situé au sein du Parc naturel régional des Vosges du Nord, à 60 km au nord de Strasbourg sur la partie la plus septentrionale de la route des vins d'Alsace.
+Le domaine viticole s'étend sur 200 ha sur les communes de Cleebourg, Oberhoffen-lès-Wissembourg, Riedseltz, Rott, Steinseltz et Wissembourg.
+Les sols sont argilo-calcaire à Cleebourg, marno-gréseux à Rott, lœss et lehm à Oberhoffen, Riedseltz et Steinseltz, et l'exposition des coteaux est sud.
 </t>
         </is>
       </c>
@@ -547,14 +561,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines
-La vigne fut probablement introduite dans la région wissembourgeoise dès le IXe siècle par les moines bénédictins de l'abbaye de Wissembourg[2].
-Au XIXe siècle, suite aux ravages provoqués par le phylloxéra, qu'est apparue la "cassure" du vignoble alsacien entre Marlenheim et Cléebourg[4].
-Création de la Cave
-Durant l'occupation de l'Alsace et de la Moselle, les Allemands ont totalement refondé le paysage de l'Alsace en organisant les plaines et les coteaux de vignes au profit de la production de denrées alimentaires de base (Reichsnährstand), ce qui a pour conséquence la quasi disparition du vignoble nord-alsacien.
-Après l'Armistice, les habitants de l'Outre-Forêt comme ceux du reste de l'Alsace rentrent au pays après s'être réfugiés dans les régions du centre de la France durant la Guerre.
-La région, déjà viticole auparavant se retrouve morcelée et les viticulteurs sont alors propriétaires de très petites exploitation. Dès 1946, les vignes sont replantées et la coopérative viticole est fondée.
-En avril 1996, pour le cinquantenaire de la cave vinicole, la Confrérie des Vins des Quatre Bans est créée pour promouvoir les vins produits sur les bans de Cléebourg, Oberhoffen, Rott et Steinseltz. La dénomination de la confrérie bachique devient en 2016 la Confrérie des vins de Cleebourg pour mieux intégrer les vins produits à Steinseltz et Wissembourg[5].
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vigne fut probablement introduite dans la région wissembourgeoise dès le IXe siècle par les moines bénédictins de l'abbaye de Wissembourg.
+Au XIXe siècle, suite aux ravages provoqués par le phylloxéra, qu'est apparue la "cassure" du vignoble alsacien entre Marlenheim et Cléebourg.
 </t>
         </is>
       </c>
@@ -580,15 +594,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Création de la Cave</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant l'occupation de l'Alsace et de la Moselle, les Allemands ont totalement refondé le paysage de l'Alsace en organisant les plaines et les coteaux de vignes au profit de la production de denrées alimentaires de base (Reichsnährstand), ce qui a pour conséquence la quasi disparition du vignoble nord-alsacien.
+Après l'Armistice, les habitants de l'Outre-Forêt comme ceux du reste de l'Alsace rentrent au pays après s'être réfugiés dans les régions du centre de la France durant la Guerre.
+La région, déjà viticole auparavant se retrouve morcelée et les viticulteurs sont alors propriétaires de très petites exploitation. Dès 1946, les vignes sont replantées et la coopérative viticole est fondée.
+En avril 1996, pour le cinquantenaire de la cave vinicole, la Confrérie des Vins des Quatre Bans est créée pour promouvoir les vins produits sur les bans de Cléebourg, Oberhoffen, Rott et Steinseltz. La dénomination de la confrérie bachique devient en 2016 la Confrérie des vins de Cleebourg pour mieux intégrer les vins produits à Steinseltz et Wissembourg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cave_de_Cleebourg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cave_de_Cleebourg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vignoble de Cleebourg produit des vins issus de sept cépages alsaciens : le sylvaner, l'auxerrois, le muscat, le riesling, le pinot gris, le gewurztraminer et le pinot noir[2] auxquels s'est récemment rajouté le chardonnay qui entre dans la production du crémant-d'alsace[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble de Cleebourg produit des vins issus de sept cépages alsaciens : le sylvaner, l'auxerrois, le muscat, le riesling, le pinot gris, le gewurztraminer et le pinot noir auxquels s'est récemment rajouté le chardonnay qui entre dans la production du crémant-d'alsace.
 60 % des vendanges se font manuellement, généralement à partir d'octobre. Certaines années la récolte de vendanges tardives voire de sélection de grains nobles peut se faire en novembre ou décembre.
 La Cave vinicole de Cleebourg regroupe en coopérative environ 170 viticulteurs du territoire et produit environ 14 000 hl de vin.
-Dix lieux-dits sont valorisés pour la production de vins de cépage[6] :
+Dix lieux-dits sont valorisés pour la production de vins de cépage :
 </t>
         </is>
       </c>
